--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saadatdost.majid\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saadatdost.majid\Desktop\New folder (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86B0143-BEF5-4210-B913-5606D63390DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBEC814-DDCD-4598-8783-E3BAC95CB7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A04015D6-22AB-4A16-AB13-6D462801A42C}"/>
   </bookViews>
@@ -174,9 +174,6 @@
     <t>ظریفی</t>
   </si>
   <si>
-    <t>رئیس حسابداری مدیریت</t>
-  </si>
-  <si>
     <t>محمد</t>
   </si>
   <si>
@@ -195,9 +192,6 @@
     <t>گلشنی</t>
   </si>
   <si>
-    <t>سرپرست حسابداری مدیریت</t>
-  </si>
-  <si>
     <t>شهناز</t>
   </si>
   <si>
@@ -553,6 +547,12 @@
   </si>
   <si>
     <t>Bayat.Mahtab@HastiTamin.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سرپرست حسابداری </t>
+  </si>
+  <si>
+    <t xml:space="preserve">رئیس حسابداری </t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788E10FE-E40D-4D67-867A-356C3923A9C3}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A8" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A23" zoomScale="108" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1202,16 +1202,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="E2" s="5">
         <v>407</v>
@@ -1223,16 +1223,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="5">
         <v>408</v>
@@ -1243,16 +1243,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5">
         <v>446</v>
@@ -1263,16 +1263,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E5" s="5">
         <v>433</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>34</v>
@@ -1303,13 +1303,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>34</v>
@@ -1323,13 +1323,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>34</v>
@@ -1338,18 +1338,18 @@
         <v>805</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>34</v>
@@ -1363,16 +1363,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E10" s="5">
         <v>442</v>
@@ -1383,56 +1383,56 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="E11" s="5">
         <v>410</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12" s="5">
         <v>436</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="E13" s="5">
         <v>430</v>
@@ -1443,36 +1443,36 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="E14" s="5">
         <v>453</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="E15" s="5">
         <v>441</v>
@@ -1483,56 +1483,56 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="E16" s="5">
         <v>412</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>163</v>
       </c>
       <c r="E17" s="5">
         <v>457</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" s="5">
         <v>413</v>
@@ -1543,33 +1543,33 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="C19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>155</v>
       </c>
       <c r="E19" s="5">
         <v>452</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>35</v>
@@ -1583,13 +1583,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>35</v>
@@ -1601,16 +1601,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" s="5">
         <v>455</v>
@@ -1621,36 +1621,36 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E23" s="5">
         <v>404</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E24" s="5">
         <v>415</v>
@@ -1661,16 +1661,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="E25" s="5">
         <v>429</v>
@@ -1681,36 +1681,36 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="E26" s="5">
         <v>459</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E27" s="5">
         <v>437</v>
@@ -1721,36 +1721,36 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="E28" s="5">
         <v>445</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D29" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="5">
         <v>403</v>
@@ -1761,16 +1761,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E30" s="5">
         <v>431</v>
@@ -1781,16 +1781,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E31" s="5">
         <v>440</v>
@@ -1801,16 +1801,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E32" s="5">
         <v>443</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>41</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>44</v>
@@ -1850,7 +1850,7 @@
         <v>45</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="E34" s="5">
         <v>416</v>
@@ -1861,16 +1861,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E35" s="5">
         <v>422</v>
@@ -1881,36 +1881,36 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E36" s="5">
         <v>461</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="D37" s="4" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="E37" s="5">
         <v>451</v>
@@ -1921,36 +1921,36 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>147</v>
       </c>
       <c r="E38" s="5">
         <v>462</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="E39" s="5">
         <v>454</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="5">
         <v>447</v>
@@ -1981,13 +1981,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>37</v>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>37</v>
